--- a/simulation_data/iterative_algorithm/i_error_level_5_percent_water_40.xlsx
+++ b/simulation_data/iterative_algorithm/i_error_level_5_percent_water_40.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>89.42534704335759</v>
+        <v>90.32453183616327</v>
       </c>
       <c r="D2" t="n">
-        <v>6.520030040424901</v>
+        <v>5.787546677978161</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>89.05851625204993</v>
+        <v>88.42673710325749</v>
       </c>
       <c r="D3" t="n">
-        <v>6.79886164017318</v>
+        <v>5.835247572373111</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>88.0130651215181</v>
+        <v>87.46049810323028</v>
       </c>
       <c r="D4" t="n">
-        <v>7.439857561526099</v>
+        <v>5.945610517062928</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>87.75785676040121</v>
+        <v>86.88362221512939</v>
       </c>
       <c r="D5" t="n">
-        <v>6.678969488715</v>
+        <v>6.087742634448074</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>85.79548573751799</v>
+        <v>86.36101525066417</v>
       </c>
       <c r="D6" t="n">
-        <v>6.784022750891598</v>
+        <v>5.753442236677555</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>85.85246700831718</v>
+        <v>85.3327959747816</v>
       </c>
       <c r="D7" t="n">
-        <v>6.200463609497716</v>
+        <v>5.892303176985717</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>84.37087533155538</v>
+        <v>83.33090182874929</v>
       </c>
       <c r="D8" t="n">
-        <v>6.710653525744862</v>
+        <v>5.665249589080394</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>83.10719743915311</v>
+        <v>82.48643179040926</v>
       </c>
       <c r="D9" t="n">
-        <v>6.343785764648041</v>
+        <v>6.460957814956993</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>82.01378051741642</v>
+        <v>81.79247132180167</v>
       </c>
       <c r="D10" t="n">
-        <v>6.882221072754028</v>
+        <v>6.0423919875767</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>82.19789916925401</v>
+        <v>80.30560053598471</v>
       </c>
       <c r="D11" t="n">
-        <v>5.529962139893403</v>
+        <v>6.07722775293146</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>81.67376380511126</v>
+        <v>78.57309335885272</v>
       </c>
       <c r="D12" t="n">
-        <v>6.717950544379658</v>
+        <v>6.516601969535396</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>78.23906372546287</v>
+        <v>79.14429247539489</v>
       </c>
       <c r="D13" t="n">
-        <v>7.663056672558373</v>
+        <v>6.412084524109009</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>78.88534405325055</v>
+        <v>77.52773423917725</v>
       </c>
       <c r="D14" t="n">
-        <v>6.471816672303996</v>
+        <v>5.293819054177666</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>77.87417171145177</v>
+        <v>77.2479563359262</v>
       </c>
       <c r="D15" t="n">
-        <v>6.217600498571262</v>
+        <v>6.462653917536615</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>76.88030551306184</v>
+        <v>75.74438927974572</v>
       </c>
       <c r="D16" t="n">
-        <v>6.442597052723878</v>
+        <v>6.443029592508123</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>76.23189343728446</v>
+        <v>75.08096741269792</v>
       </c>
       <c r="D17" t="n">
-        <v>5.249765961268664</v>
+        <v>6.437935394510093</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>73.48682608077324</v>
+        <v>74.27616542229151</v>
       </c>
       <c r="D18" t="n">
-        <v>6.212318355767602</v>
+        <v>6.263240072546077</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>71.09737729893558</v>
+        <v>71.97897963092487</v>
       </c>
       <c r="D19" t="n">
-        <v>6.74156868751802</v>
+        <v>6.064293081620967</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>71.59662051410915</v>
+        <v>72.35110327038996</v>
       </c>
       <c r="D20" t="n">
-        <v>6.490474204413186</v>
+        <v>6.338908024434953</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>70.6668763911732</v>
+        <v>70.76294616821909</v>
       </c>
       <c r="D21" t="n">
-        <v>6.577716390890512</v>
+        <v>6.759533359872198</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>70.43637146682508</v>
+        <v>70.08613012588584</v>
       </c>
       <c r="D22" t="n">
-        <v>5.869297971838678</v>
+        <v>6.047519047194402</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>68.01781078310368</v>
+        <v>69.56293865229394</v>
       </c>
       <c r="D23" t="n">
-        <v>5.872219561511212</v>
+        <v>6.338795396222725</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>68.11724739673863</v>
+        <v>68.23722485340495</v>
       </c>
       <c r="D24" t="n">
-        <v>6.48751853791919</v>
+        <v>6.300594868127203</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>66.41099325438218</v>
+        <v>66.41733196591308</v>
       </c>
       <c r="D25" t="n">
-        <v>7.063931455348631</v>
+        <v>6.445713764847661</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>65.76721066981645</v>
+        <v>65.11731402119521</v>
       </c>
       <c r="D26" t="n">
-        <v>6.401074319914792</v>
+        <v>6.76077469966124</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>64.35327207817159</v>
+        <v>65.90043050104632</v>
       </c>
       <c r="D27" t="n">
-        <v>6.439866014132027</v>
+        <v>6.457053596192623</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>63.72965408455373</v>
+        <v>63.93437801676153</v>
       </c>
       <c r="D28" t="n">
-        <v>5.68511893520819</v>
+        <v>5.393032903039986</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>63.11473552135492</v>
+        <v>63.75964843365153</v>
       </c>
       <c r="D29" t="n">
-        <v>6.768822604960037</v>
+        <v>6.901160730846499</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>61.63174535887215</v>
+        <v>61.63439831798776</v>
       </c>
       <c r="D30" t="n">
-        <v>7.057888738319452</v>
+        <v>6.529245103156057</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>60.24669676340299</v>
+        <v>61.60207060547505</v>
       </c>
       <c r="D31" t="n">
-        <v>6.69447782576796</v>
+        <v>6.44890574296751</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>59.68723750400424</v>
+        <v>59.51130349096979</v>
       </c>
       <c r="D32" t="n">
-        <v>6.60464479755543</v>
+        <v>6.568862943014368</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>60.18687758179379</v>
+        <v>58.37809559898778</v>
       </c>
       <c r="D33" t="n">
-        <v>6.357956891226922</v>
+        <v>6.449353313238805</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>57.81788600303992</v>
+        <v>58.04234400542055</v>
       </c>
       <c r="D34" t="n">
-        <v>6.706258140206182</v>
+        <v>6.946104972079479</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>57.57962473053763</v>
+        <v>56.28853338129803</v>
       </c>
       <c r="D35" t="n">
-        <v>5.421589816622016</v>
+        <v>5.908101830793305</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>57.28945164967078</v>
+        <v>55.45291644987694</v>
       </c>
       <c r="D36" t="n">
-        <v>6.700625594567985</v>
+        <v>5.135744122985864</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>55.77189113412491</v>
+        <v>55.20631318467171</v>
       </c>
       <c r="D37" t="n">
-        <v>7.240807606087884</v>
+        <v>5.911590193237719</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>54.94993766052406</v>
+        <v>53.78990985252777</v>
       </c>
       <c r="D38" t="n">
-        <v>6.421593572342012</v>
+        <v>5.996527406809376</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>52.55602442057599</v>
+        <v>53.1368580334828</v>
       </c>
       <c r="D39" t="n">
-        <v>5.929279509098102</v>
+        <v>6.198823967366566</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>51.56097405335709</v>
+        <v>51.78585345352125</v>
       </c>
       <c r="D40" t="n">
-        <v>6.318992904682921</v>
+        <v>6.644876245135854</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>51.69343016238138</v>
+        <v>51.30827952582707</v>
       </c>
       <c r="D41" t="n">
-        <v>5.879343429851975</v>
+        <v>6.445937735229635</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>48.5087178343109</v>
+        <v>49.18534195399408</v>
       </c>
       <c r="D42" t="n">
-        <v>6.591712761903094</v>
+        <v>5.972306990494284</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>48.51477130171169</v>
+        <v>49.5700099339822</v>
       </c>
       <c r="D43" t="n">
-        <v>6.458537951447888</v>
+        <v>6.75693352132762</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>48.11078958550892</v>
+        <v>48.42891548418189</v>
       </c>
       <c r="D44" t="n">
-        <v>6.580226769619414</v>
+        <v>6.286663354790646</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>46.61648754835713</v>
+        <v>46.87831348559111</v>
       </c>
       <c r="D45" t="n">
-        <v>5.88268645370453</v>
+        <v>6.722549118717203</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>45.58256560930485</v>
+        <v>46.07778780027798</v>
       </c>
       <c r="D46" t="n">
-        <v>6.491353693954845</v>
+        <v>6.73962592410024</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>45.30422099735229</v>
+        <v>45.98102322251869</v>
       </c>
       <c r="D47" t="n">
-        <v>6.316085409499968</v>
+        <v>5.743612225457953</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>43.51717978657361</v>
+        <v>43.98862523840106</v>
       </c>
       <c r="D48" t="n">
-        <v>7.49851961935757</v>
+        <v>6.107265717583132</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>43.52325638750492</v>
+        <v>43.29068092827233</v>
       </c>
       <c r="D49" t="n">
-        <v>6.356547998569929</v>
+        <v>6.496789557714117</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>41.87109374434419</v>
+        <v>41.86391112460615</v>
       </c>
       <c r="D50" t="n">
-        <v>6.073128006732869</v>
+        <v>6.343052035759927</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>40.68737336548068</v>
+        <v>40.99323435771273</v>
       </c>
       <c r="D51" t="n">
-        <v>7.781173942847253</v>
+        <v>6.462034145739971</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>38.88117700552382</v>
+        <v>39.40412281645761</v>
       </c>
       <c r="D52" t="n">
-        <v>7.032787379484285</v>
+        <v>8.137511184800344</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>39.05261695475048</v>
+        <v>38.35479118165203</v>
       </c>
       <c r="D53" t="n">
-        <v>6.832056421084601</v>
+        <v>6.284992310604918</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>36.67491441355094</v>
+        <v>37.37141639549564</v>
       </c>
       <c r="D54" t="n">
-        <v>6.631501702489105</v>
+        <v>6.982411610342344</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>38.20407184436982</v>
+        <v>38.25086455050779</v>
       </c>
       <c r="D55" t="n">
-        <v>7.49080840378127</v>
+        <v>6.99184765599392</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>36.58286365239854</v>
+        <v>36.79731440937275</v>
       </c>
       <c r="D56" t="n">
-        <v>6.925639525248178</v>
+        <v>5.476508024005796</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>35.14241179266282</v>
+        <v>35.39432752889547</v>
       </c>
       <c r="D57" t="n">
-        <v>5.986732009975448</v>
+        <v>6.307815841741463</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>34.01330666444693</v>
+        <v>33.37400485869944</v>
       </c>
       <c r="D58" t="n">
-        <v>6.38424389279951</v>
+        <v>7.575319168345882</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>31.95438400442316</v>
+        <v>33.5655554333674</v>
       </c>
       <c r="D59" t="n">
-        <v>6.001088461601077</v>
+        <v>6.447212633873995</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>31.53252005028337</v>
+        <v>31.69468973315984</v>
       </c>
       <c r="D60" t="n">
-        <v>6.96367148022395</v>
+        <v>6.757271741981469</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>31.35634853038995</v>
+        <v>30.04541216960504</v>
       </c>
       <c r="D61" t="n">
-        <v>6.605896401131068</v>
+        <v>6.744471414930582</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>30.03369585594957</v>
+        <v>29.58304331972769</v>
       </c>
       <c r="D62" t="n">
-        <v>6.568737543031674</v>
+        <v>6.44451330868355</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>28.86472208568807</v>
+        <v>29.09787507214316</v>
       </c>
       <c r="D63" t="n">
-        <v>7.351649722874587</v>
+        <v>6.631630296671633</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>27.11243165033196</v>
+        <v>28.74920161121068</v>
       </c>
       <c r="D64" t="n">
-        <v>6.59211556281084</v>
+        <v>7.365509191613988</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>27.17750164748028</v>
+        <v>26.20062739475656</v>
       </c>
       <c r="D65" t="n">
-        <v>5.780578502605373</v>
+        <v>6.915168167540553</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>26.41202590730786</v>
+        <v>25.72755242418939</v>
       </c>
       <c r="D66" t="n">
-        <v>6.662140307978224</v>
+        <v>6.69365566452563</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>25.26658254884026</v>
+        <v>24.93124623503983</v>
       </c>
       <c r="D67" t="n">
-        <v>6.763014918962974</v>
+        <v>6.778225558788949</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>24.50824668527541</v>
+        <v>23.65849085770452</v>
       </c>
       <c r="D68" t="n">
-        <v>6.65821636842768</v>
+        <v>7.445649554469132</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>23.21919738492267</v>
+        <v>22.83526368196654</v>
       </c>
       <c r="D69" t="n">
-        <v>6.997523571313637</v>
+        <v>6.67005708581392</v>
       </c>
     </row>
   </sheetData>
